--- a/DATABASE/Community investment.xlsx
+++ b/DATABASE/Community investment.xlsx
@@ -486,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -590,9 +590,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,40 +612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,15 +629,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -675,7 +660,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -683,22 +684,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,16 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,8 +726,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,73 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor rgb="FF1C4587"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,73 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +821,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,16 +992,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,25 +1031,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,16 +1055,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,143 +1102,143 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,9 +1263,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1293,48 +1284,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1676,8 +1640,8 @@
   <sheetPr/>
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1725,7 +1689,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" ht="21" spans="1:8">
+    <row r="5" ht="18.75" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1751,14 +1715,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:8">
+    <row r="6" ht="15.75" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1777,85 +1741,85 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:8">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>128</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="15.75" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>255</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="15.75" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>255</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
@@ -1864,7 +1828,7 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1873,13 +1837,13 @@
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1890,7 +1854,7 @@
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1899,185 +1863,185 @@
       <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" ht="15.75" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>16</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="15.75" spans="1:8">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2048</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="23" ht="34" customHeight="1" spans="1:8">
       <c r="A23" s="4" t="s">
@@ -2124,7 +2088,7 @@
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>20</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -2144,164 +2108,164 @@
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:8">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>128</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" ht="15.75" spans="1:8">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>255</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" ht="15.75" spans="1:8">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>16</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" ht="15.75" spans="1:8">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>16</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" ht="15.75" spans="1:8">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>11</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>2048</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>16</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
@@ -2310,7 +2274,7 @@
       <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>20</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2319,13 +2283,13 @@
       <c r="E34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2336,7 +2300,7 @@
       <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>20</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2345,13 +2309,13 @@
       <c r="E35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2362,7 +2326,7 @@
       <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>20</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2371,164 +2335,164 @@
       <c r="E36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>255</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>255</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>20</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2537,35 +2501,35 @@
       <c r="E44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" ht="21" spans="1:8">
       <c r="A47" s="4" t="s">
@@ -2612,7 +2576,7 @@
       <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>20</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -2632,64 +2596,64 @@
       </c>
     </row>
     <row r="50" ht="15.75" spans="1:8">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>128</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" ht="15.75" spans="1:8">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>255</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" ht="15.75" spans="1:8">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>255</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
@@ -2698,7 +2662,7 @@
       <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>20</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2707,35 +2671,35 @@
       <c r="E53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" ht="21" spans="1:8">
       <c r="A56" s="4" t="s">
@@ -2782,7 +2746,7 @@
       <c r="B58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>20</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2802,24 +2766,24 @@
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:8">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>128</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" ht="15.75" spans="1:8">
       <c r="A60" s="6" t="s">
@@ -2828,7 +2792,7 @@
       <c r="B60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>20</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2837,13 +2801,13 @@
       <c r="E60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2854,7 +2818,7 @@
       <c r="B61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>20</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2863,35 +2827,35 @@
       <c r="E61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:8">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>16</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" ht="15.75" spans="1:8">
       <c r="A63" s="6" t="s">
@@ -2900,7 +2864,7 @@
       <c r="B63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>20</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -2909,13 +2873,13 @@
       <c r="E63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2926,7 +2890,7 @@
       <c r="B64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>20</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2935,115 +2899,115 @@
       <c r="E64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="9">
         <v>10</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="23"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" ht="21" spans="1:8">
       <c r="A71" s="4" t="s">
@@ -3090,7 +3054,7 @@
       <c r="B73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -3110,24 +3074,24 @@
       </c>
     </row>
     <row r="74" ht="15.75" spans="1:8">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>16</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
@@ -3136,7 +3100,7 @@
       <c r="B75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>20</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3145,13 +3109,13 @@
       <c r="E75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3200,7 +3164,7 @@
       <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>20</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -3209,13 +3173,13 @@
       <c r="E80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3226,7 +3190,7 @@
       <c r="B81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>20</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -3235,13 +3199,13 @@
       <c r="E81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3290,7 +3254,7 @@
       <c r="B85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>20</v>
       </c>
       <c r="D85" s="7" t="s">
@@ -3299,13 +3263,13 @@
       <c r="E85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3316,7 +3280,7 @@
       <c r="B86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>20</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -3325,25 +3289,25 @@
       <c r="E86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="89" ht="21" spans="1:8">
       <c r="A89" s="4" t="s">
@@ -3390,7 +3354,7 @@
       <c r="B91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <v>20</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -3399,13 +3363,13 @@
       <c r="E91" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3416,7 +3380,7 @@
       <c r="B92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>20</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -3425,25 +3389,25 @@
       <c r="E92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="93" ht="15.75" spans="1:8">
-      <c r="A93" s="25"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
     </row>
     <row r="95" ht="21" spans="1:8">
       <c r="A95" s="4" t="s">
@@ -3490,7 +3454,7 @@
       <c r="B97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <v>20</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -3499,13 +3463,13 @@
       <c r="E97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3516,7 +3480,7 @@
       <c r="B98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <v>20</v>
       </c>
       <c r="D98" s="7" t="s">
@@ -3525,13 +3489,13 @@
       <c r="E98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3580,7 +3544,7 @@
       <c r="B103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>20</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -3589,13 +3553,13 @@
       <c r="E103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3606,7 +3570,7 @@
       <c r="B104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <v>20</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -3615,13 +3579,13 @@
       <c r="E104" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3670,7 +3634,7 @@
       <c r="B109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <v>20</v>
       </c>
       <c r="D109" s="7" t="s">
@@ -3679,13 +3643,13 @@
       <c r="E109" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3696,7 +3660,7 @@
       <c r="B110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <v>20</v>
       </c>
       <c r="D110" s="7" t="s">
@@ -3705,13 +3669,13 @@
       <c r="E110" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3760,7 +3724,7 @@
       <c r="B115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7">
         <v>20</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -3769,13 +3733,13 @@
       <c r="E115" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3786,7 +3750,7 @@
       <c r="B116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7">
         <v>20</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -3795,13 +3759,13 @@
       <c r="E116" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3850,7 +3814,7 @@
       <c r="B121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7">
         <v>20</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -3870,84 +3834,84 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="9">
         <v>16</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="10" t="s">
+      <c r="D123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7" t="s">
@@ -3956,7 +3920,7 @@
       <c r="B126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="7">
         <v>20</v>
       </c>
       <c r="D126" s="7" t="s">
@@ -3965,13 +3929,13 @@
       <c r="E126" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H126" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3982,7 +3946,7 @@
       <c r="B127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <v>20</v>
       </c>
       <c r="D127" s="7" t="s">
@@ -3991,13 +3955,13 @@
       <c r="E127" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4008,7 +3972,7 @@
       <c r="B128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="7">
         <v>20</v>
       </c>
       <c r="D128" s="7" t="s">
@@ -4017,126 +3981,126 @@
       <c r="E128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="129" ht="15.75" spans="1:8">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="9">
         <v>1</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="18">
+      <c r="D129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="9">
         <v>0</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G129" s="7"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>5</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="26" t="s">
+      <c r="A131" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>5</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="9">
         <v>5</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>5</v>
       </c>
       <c r="D134" s="7" t="s">
@@ -4145,66 +4109,66 @@
       <c r="E134" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="9">
         <v>16</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F136" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G136" s="18"/>
-      <c r="H136" s="19"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="7">
         <v>5</v>
       </c>
       <c r="D137" s="7" t="s">
@@ -4213,35 +4177,35 @@
       <c r="E137" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="10">
+      <c r="D138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="9">
         <v>1</v>
       </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" ht="15.75" spans="1:8">
       <c r="A139" s="6" t="s">
@@ -4250,7 +4214,7 @@
       <c r="B139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="7">
         <v>20</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -4259,35 +4223,35 @@
       <c r="E139" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="8" t="s">
+      <c r="H139" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="140" ht="15.75" spans="1:8">
-      <c r="A140" s="25"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="23"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" ht="21" spans="1:8">
       <c r="A142" s="4" t="s">
@@ -4334,7 +4298,7 @@
       <c r="B144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="7">
         <v>20</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -4360,7 +4324,7 @@
       <c r="B145" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="7">
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
@@ -4369,75 +4333,75 @@
       <c r="E145" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>16</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="9">
         <v>16</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
     </row>
     <row r="150" ht="21" spans="1:8">
       <c r="A150" s="4" t="s">
@@ -4484,7 +4448,7 @@
       <c r="B152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="7">
         <v>20</v>
       </c>
       <c r="D152" s="7" t="s">
@@ -4510,7 +4474,7 @@
       <c r="B153" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="7">
         <v>20</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -4519,95 +4483,95 @@
       <c r="E153" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="8" t="s">
+      <c r="H153" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E155" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
     </row>
     <row r="160" ht="21" spans="1:8">
       <c r="A160" s="4" t="s">
@@ -4654,7 +4618,7 @@
       <c r="B162" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <v>20</v>
       </c>
       <c r="D162" s="7" t="s">
@@ -4674,44 +4638,44 @@
       </c>
     </row>
     <row r="163" ht="15.75" spans="1:8">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="9">
         <v>16</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" ht="15.75" spans="1:8">
-      <c r="A164" s="28"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
     </row>
     <row r="166" ht="21" spans="1:8">
       <c r="A166" s="4" t="s">
@@ -4758,7 +4722,7 @@
       <c r="B168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="7">
         <v>20</v>
       </c>
       <c r="D168" s="7" t="s">
@@ -4767,67 +4731,67 @@
       <c r="E168" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="169" ht="15.75" spans="1:8">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F169" s="18" t="s">
+      <c r="F169" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G169" s="18"/>
-      <c r="H169" s="19"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="24"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
     </row>
     <row r="174" ht="21" spans="1:8">
       <c r="A174" s="4" t="s">
@@ -4874,7 +4838,7 @@
       <c r="B176" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="7">
         <v>20</v>
       </c>
       <c r="D176" s="7" t="s">
@@ -4894,24 +4858,24 @@
       </c>
     </row>
     <row r="177" ht="15.75" spans="1:8">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="9">
         <v>16</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E177" s="10" t="s">
+      <c r="E177" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="180" ht="21" spans="1:8">
       <c r="A180" s="4" t="s">
@@ -4958,7 +4922,7 @@
       <c r="B182" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="7">
         <v>20</v>
       </c>
       <c r="D182" s="7" t="s">
@@ -4984,7 +4948,7 @@
       <c r="B183" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="7">
         <v>20</v>
       </c>
       <c r="D183" s="7" t="s">
@@ -4993,35 +4957,35 @@
       <c r="E183" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F183" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="8" t="s">
+      <c r="H183" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="184" ht="15.75" spans="1:8">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="10">
+      <c r="C184" s="9">
         <v>16</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="187" ht="21" spans="1:8">
       <c r="A187" s="4" t="s">
@@ -5068,7 +5032,7 @@
       <c r="B189" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="7">
         <v>20</v>
       </c>
       <c r="D189" s="7" t="s">
@@ -5088,44 +5052,44 @@
       </c>
     </row>
     <row r="190" ht="15.75" spans="1:8">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C190" s="10">
+      <c r="C190" s="9">
         <v>16</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E190" s="10" t="s">
+      <c r="E190" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" s="10">
+      <c r="D191" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="9">
         <v>1</v>
       </c>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="194" ht="21" spans="1:8">
       <c r="A194" s="4" t="s">
@@ -5172,7 +5136,7 @@
       <c r="B196" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="7">
         <v>20</v>
       </c>
       <c r="D196" s="7" t="s">
@@ -5192,184 +5156,184 @@
       </c>
     </row>
     <row r="197" ht="15.75" spans="1:8">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C197" s="9">
         <v>128</v>
       </c>
-      <c r="D197" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="10" t="s">
+      <c r="D197" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" ht="15.75" spans="1:8">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="10">
+      <c r="C198" s="9">
         <v>255</v>
       </c>
-      <c r="D198" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="10" t="s">
+      <c r="D198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" ht="15.75" spans="1:8">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C199" s="9">
         <v>16</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" ht="15.75" spans="1:8">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C200" s="10">
+      <c r="C200" s="9">
         <v>16</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="E200" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" ht="15.75" spans="1:8">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C201" s="10">
+      <c r="C201" s="9">
         <v>11</v>
       </c>
-      <c r="D201" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="10" t="s">
+      <c r="D201" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C202" s="10">
+      <c r="C202" s="9">
         <v>2048</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="10" t="s">
+      <c r="D203" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E204" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E205" s="10" t="s">
+      <c r="E205" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="208" ht="21" spans="1:8">
       <c r="A208" s="4" t="s">
@@ -5416,7 +5380,7 @@
       <c r="B210" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="7">
         <v>20</v>
       </c>
       <c r="D210" s="7" t="s">
@@ -5436,896 +5400,896 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C211" s="10">
+      <c r="C211" s="9">
         <v>16</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="29" t="s">
+      <c r="A214" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B214" s="30"/>
-      <c r="C214" s="30"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="31" t="s">
+      <c r="A215" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="31" t="s">
+      <c r="C215" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E215" s="31" t="s">
+      <c r="E215" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F215" s="31" t="s">
+      <c r="F215" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G215" s="31" t="s">
+      <c r="G215" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H215" s="31" t="s">
+      <c r="H215" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="32" t="s">
+      <c r="A216" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C216" s="32">
+      <c r="C216" s="22">
         <v>20</v>
       </c>
-      <c r="D216" s="32" t="s">
+      <c r="D216" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E216" s="32" t="s">
+      <c r="E216" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F216" s="32" t="s">
+      <c r="F216" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G216" s="32" t="s">
+      <c r="G216" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H216" s="32" t="s">
+      <c r="H216" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="33" t="s">
+      <c r="A217" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C217" s="33">
+      <c r="C217" s="23">
         <v>128</v>
       </c>
-      <c r="D217" s="33" t="s">
+      <c r="D217" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E217" s="33" t="s">
+      <c r="E217" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C218" s="32">
+      <c r="C218" s="22">
         <v>20</v>
       </c>
-      <c r="D218" s="32" t="s">
+      <c r="D218" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E218" s="32" t="s">
+      <c r="E218" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32" t="s">
+      <c r="F218" s="22"/>
+      <c r="G218" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H218" s="32" t="s">
+      <c r="H218" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="32" t="s">
+      <c r="A219" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C219" s="32">
+      <c r="C219" s="22">
         <v>20</v>
       </c>
-      <c r="D219" s="32" t="s">
+      <c r="D219" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E219" s="32" t="s">
+      <c r="E219" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F219" s="32"/>
-      <c r="G219" s="32" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H219" s="32" t="s">
+      <c r="H219" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="33" t="s">
+      <c r="A220" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B220" s="33" t="s">
+      <c r="B220" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C220" s="33" t="s">
+      <c r="C220" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D220" s="33" t="s">
+      <c r="D220" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E220" s="33" t="s">
+      <c r="E220" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F220" s="33"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="35"/>
-      <c r="B221" s="35"/>
-      <c r="C221" s="35"/>
-      <c r="D221" s="35"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="35"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="35"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="29" t="s">
+      <c r="A222" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B222" s="30"/>
-      <c r="C222" s="30"/>
-      <c r="D222" s="30"/>
-      <c r="E222" s="30"/>
-      <c r="F222" s="30"/>
-      <c r="G222" s="30"/>
-      <c r="H222" s="30"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="31" t="s">
+      <c r="A223" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B223" s="31" t="s">
+      <c r="B223" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="31" t="s">
+      <c r="C223" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E223" s="31" t="s">
+      <c r="E223" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F223" s="31" t="s">
+      <c r="F223" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G223" s="31" t="s">
+      <c r="G223" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H223" s="31" t="s">
+      <c r="H223" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="32" t="s">
+      <c r="B224" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C224" s="32">
+      <c r="C224" s="22">
         <v>20</v>
       </c>
-      <c r="D224" s="32" t="s">
+      <c r="D224" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E224" s="32" t="s">
+      <c r="E224" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F224" s="32" t="s">
+      <c r="F224" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="32" t="s">
+      <c r="G224" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H224" s="32" t="s">
+      <c r="H224" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="32" t="s">
+      <c r="A225" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B225" s="32" t="s">
+      <c r="B225" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C225" s="32">
+      <c r="C225" s="22">
         <v>128</v>
       </c>
-      <c r="D225" s="32" t="s">
+      <c r="D225" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E225" s="32" t="s">
+      <c r="E225" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="32"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B226" s="32" t="s">
+      <c r="B226" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C226" s="32">
+      <c r="C226" s="22">
         <v>20</v>
       </c>
-      <c r="D226" s="32" t="s">
+      <c r="D226" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E226" s="32" t="s">
+      <c r="E226" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="32" t="s">
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="33" t="s">
+      <c r="A227" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B227" s="33" t="s">
+      <c r="B227" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C227" s="33" t="s">
+      <c r="C227" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D227" s="33" t="s">
+      <c r="D227" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E227" s="33">
+      <c r="E227" s="23">
         <v>0</v>
       </c>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="33" t="s">
+      <c r="A228" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B228" s="33" t="s">
+      <c r="B228" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C228" s="33" t="s">
+      <c r="C228" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D228" s="33" t="s">
+      <c r="D228" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E228" s="33" t="s">
+      <c r="E228" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="35"/>
-      <c r="B229" s="35"/>
-      <c r="C229" s="35"/>
-      <c r="D229" s="35"/>
-      <c r="E229" s="35"/>
-      <c r="F229" s="35"/>
-      <c r="G229" s="35"/>
-      <c r="H229" s="35"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="25"/>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="29" t="s">
+      <c r="A230" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B230" s="30"/>
-      <c r="C230" s="30"/>
-      <c r="D230" s="30"/>
-      <c r="E230" s="30"/>
-      <c r="F230" s="30"/>
-      <c r="G230" s="30"/>
-      <c r="H230" s="30"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="31" t="s">
+      <c r="A231" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B231" s="31" t="s">
+      <c r="B231" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="31" t="s">
+      <c r="C231" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E231" s="31" t="s">
+      <c r="E231" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F231" s="31" t="s">
+      <c r="F231" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G231" s="31" t="s">
+      <c r="G231" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H231" s="31" t="s">
+      <c r="H231" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="36" t="s">
+      <c r="A232" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B232" s="36" t="s">
+      <c r="B232" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C232" s="37">
+      <c r="C232" s="27">
         <v>20</v>
       </c>
-      <c r="D232" s="36" t="s">
+      <c r="D232" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E232" s="36" t="s">
+      <c r="E232" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F232" s="38"/>
-      <c r="G232" s="36" t="s">
+      <c r="F232" s="28"/>
+      <c r="G232" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H232" s="36" t="s">
+      <c r="H232" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="36" t="s">
+      <c r="A233" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="36" t="s">
+      <c r="B233" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C233" s="37">
+      <c r="C233" s="27">
         <v>20</v>
       </c>
-      <c r="D233" s="36" t="s">
+      <c r="D233" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E233" s="36" t="s">
+      <c r="E233" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F233" s="38"/>
-      <c r="G233" s="36" t="s">
+      <c r="F233" s="28"/>
+      <c r="G233" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H233" s="36" t="s">
+      <c r="H233" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="38" t="s">
+      <c r="A234" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C234" s="39">
+      <c r="C234" s="29">
         <v>2</v>
       </c>
-      <c r="D234" s="38" t="s">
+      <c r="D234" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E234" s="38" t="s">
+      <c r="E234" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F234" s="38"/>
-      <c r="G234" s="38" t="s">
+      <c r="F234" s="28"/>
+      <c r="G234" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H234" s="38"/>
+      <c r="H234" s="28"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="38" t="s">
+      <c r="A235" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C235" s="39">
+      <c r="C235" s="29">
         <v>2</v>
       </c>
-      <c r="D235" s="38" t="s">
+      <c r="D235" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E235" s="39">
+      <c r="E235" s="29">
         <v>0</v>
       </c>
-      <c r="F235" s="38"/>
-      <c r="G235" s="38" t="s">
+      <c r="F235" s="28"/>
+      <c r="G235" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H235" s="38"/>
+      <c r="H235" s="28"/>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="38" t="s">
+      <c r="A236" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C236" s="39">
+      <c r="C236" s="29">
         <v>10</v>
       </c>
-      <c r="D236" s="38" t="s">
+      <c r="D236" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E236" s="38" t="s">
+      <c r="E236" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F236" s="38"/>
-      <c r="G236" s="38" t="s">
+      <c r="F236" s="28"/>
+      <c r="G236" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H236" s="38"/>
+      <c r="H236" s="28"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="38" t="s">
+      <c r="A237" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B237" s="38" t="s">
+      <c r="B237" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C237" s="38"/>
-      <c r="D237" s="38" t="s">
+      <c r="C237" s="28"/>
+      <c r="D237" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E237" s="38" t="s">
+      <c r="E237" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F237" s="38"/>
-      <c r="G237" s="38"/>
-      <c r="H237" s="38"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="38" t="s">
+      <c r="A238" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B238" s="38" t="s">
+      <c r="B238" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C238" s="38"/>
-      <c r="D238" s="38" t="s">
+      <c r="C238" s="28"/>
+      <c r="D238" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E238" s="38" t="s">
+      <c r="E238" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F238" s="38"/>
-      <c r="G238" s="38"/>
-      <c r="H238" s="38"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
+      <c r="H238" s="28"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="38" t="s">
+      <c r="A239" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B239" s="38" t="s">
+      <c r="B239" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C239" s="38"/>
-      <c r="D239" s="38" t="s">
+      <c r="C239" s="28"/>
+      <c r="D239" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E239" s="38" t="s">
+      <c r="E239" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F239" s="38"/>
-      <c r="G239" s="38"/>
-      <c r="H239" s="38"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="38" t="s">
+      <c r="A240" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B240" s="38" t="s">
+      <c r="B240" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C240" s="38"/>
-      <c r="D240" s="38" t="s">
+      <c r="C240" s="28"/>
+      <c r="D240" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E240" s="38" t="s">
+      <c r="E240" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F240" s="38"/>
-      <c r="G240" s="38"/>
-      <c r="H240" s="38"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+      <c r="H240" s="28"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="38" t="s">
+      <c r="A241" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B241" s="38" t="s">
+      <c r="B241" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C241" s="38"/>
-      <c r="D241" s="38" t="s">
+      <c r="C241" s="28"/>
+      <c r="D241" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E241" s="38" t="s">
+      <c r="E241" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F241" s="38"/>
-      <c r="G241" s="38"/>
-      <c r="H241" s="38"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
+      <c r="H241" s="28"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="35"/>
-      <c r="B242" s="35"/>
-      <c r="C242" s="35"/>
-      <c r="D242" s="35"/>
-      <c r="E242" s="35"/>
-      <c r="F242" s="35"/>
-      <c r="G242" s="35"/>
-      <c r="H242" s="35"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="25"/>
+      <c r="F242" s="25"/>
+      <c r="G242" s="25"/>
+      <c r="H242" s="25"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="29" t="s">
+      <c r="A243" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B243" s="30"/>
-      <c r="C243" s="30"/>
-      <c r="D243" s="30"/>
-      <c r="E243" s="30"/>
-      <c r="F243" s="30"/>
-      <c r="G243" s="30"/>
-      <c r="H243" s="30"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="31" t="s">
+      <c r="A244" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B244" s="31" t="s">
+      <c r="B244" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="31" t="s">
+      <c r="C244" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D244" s="31" t="s">
+      <c r="D244" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E244" s="31" t="s">
+      <c r="E244" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F244" s="31" t="s">
+      <c r="F244" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G244" s="31" t="s">
+      <c r="G244" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H244" s="31" t="s">
+      <c r="H244" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="34" t="s">
+      <c r="A245" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B245" s="34" t="s">
+      <c r="B245" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C245" s="40">
+      <c r="C245" s="30">
         <v>20</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D245" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E245" s="34" t="s">
+      <c r="E245" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F245" s="34" t="s">
+      <c r="F245" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G245" s="34" t="s">
+      <c r="G245" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H245" s="34" t="s">
+      <c r="H245" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="34" t="s">
+      <c r="A246" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B246" s="34" t="s">
+      <c r="B246" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C246" s="40">
+      <c r="C246" s="30">
         <v>20</v>
       </c>
-      <c r="D246" s="34" t="s">
+      <c r="D246" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E246" s="34" t="s">
+      <c r="E246" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F246" s="34"/>
-      <c r="G246" s="36" t="s">
+      <c r="F246" s="24"/>
+      <c r="G246" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H246" s="34" t="s">
+      <c r="H246" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="34" t="s">
+      <c r="A247" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B247" s="34" t="s">
+      <c r="B247" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C247" s="40">
+      <c r="C247" s="30">
         <v>20</v>
       </c>
-      <c r="D247" s="34" t="s">
+      <c r="D247" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E247" s="34" t="s">
+      <c r="E247" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F247" s="34"/>
-      <c r="G247" s="36" t="s">
+      <c r="F247" s="24"/>
+      <c r="G247" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H247" s="34" t="s">
+      <c r="H247" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="33" t="s">
+      <c r="A248" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B248" s="33" t="s">
+      <c r="B248" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C248" s="33">
+      <c r="C248" s="23">
         <v>5</v>
       </c>
-      <c r="D248" s="33" t="s">
+      <c r="D248" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E248" s="33" t="s">
+      <c r="E248" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
+      <c r="F248" s="23"/>
+      <c r="G248" s="23"/>
+      <c r="H248" s="23"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="35"/>
-      <c r="B249" s="35"/>
-      <c r="C249" s="35"/>
-      <c r="D249" s="35"/>
-      <c r="E249" s="35"/>
-      <c r="F249" s="35"/>
-      <c r="G249" s="35"/>
-      <c r="H249" s="35"/>
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="25"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="25"/>
+      <c r="H249" s="25"/>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="29" t="s">
+      <c r="A250" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B250" s="30"/>
-      <c r="C250" s="30"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="30"/>
-      <c r="F250" s="30"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="30"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="31" t="s">
+      <c r="A251" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B251" s="31" t="s">
+      <c r="B251" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="31" t="s">
+      <c r="C251" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D251" s="31" t="s">
+      <c r="D251" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E251" s="31" t="s">
+      <c r="E251" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F251" s="31" t="s">
+      <c r="F251" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G251" s="31" t="s">
+      <c r="G251" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H251" s="31" t="s">
+      <c r="H251" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="36" t="s">
+      <c r="A252" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B252" s="36" t="s">
+      <c r="B252" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C252" s="37">
+      <c r="C252" s="27">
         <v>20</v>
       </c>
-      <c r="D252" s="36" t="s">
+      <c r="D252" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E252" s="36" t="s">
+      <c r="E252" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F252" s="36" t="s">
+      <c r="F252" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G252" s="36" t="s">
+      <c r="G252" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H252" s="36" t="s">
+      <c r="H252" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="36" t="s">
+      <c r="A253" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B253" s="36" t="s">
+      <c r="B253" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C253" s="37">
+      <c r="C253" s="27">
         <v>20</v>
       </c>
-      <c r="D253" s="36" t="s">
+      <c r="D253" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E253" s="36" t="s">
+      <c r="E253" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F253" s="38"/>
-      <c r="G253" s="36" t="s">
+      <c r="F253" s="28"/>
+      <c r="G253" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H253" s="36" t="s">
+      <c r="H253" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="36" t="s">
+      <c r="A254" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B254" s="36" t="s">
+      <c r="B254" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C254" s="37">
+      <c r="C254" s="27">
         <v>20</v>
       </c>
-      <c r="D254" s="36" t="s">
+      <c r="D254" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E254" s="36" t="s">
+      <c r="E254" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F254" s="38"/>
-      <c r="G254" s="36" t="s">
+      <c r="F254" s="28"/>
+      <c r="G254" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H254" s="36" t="s">
+      <c r="H254" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="38" t="s">
+      <c r="A255" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B255" s="38" t="s">
+      <c r="B255" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C255" s="38" t="s">
+      <c r="C255" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D255" s="38" t="s">
+      <c r="D255" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E255" s="39">
+      <c r="E255" s="29">
         <v>0</v>
       </c>
-      <c r="F255" s="38"/>
-      <c r="G255" s="38"/>
-      <c r="H255" s="38"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
+      <c r="H255" s="28"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="38" t="s">
+      <c r="A256" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B256" s="38" t="s">
+      <c r="B256" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C256" s="38"/>
-      <c r="D256" s="38" t="s">
+      <c r="C256" s="28"/>
+      <c r="D256" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E256" s="38" t="s">
+      <c r="E256" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F256" s="38"/>
-      <c r="G256" s="38"/>
-      <c r="H256" s="38"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
+      <c r="H256" s="28"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="41"/>
-      <c r="B257" s="41"/>
-      <c r="C257" s="41"/>
-      <c r="D257" s="41"/>
-      <c r="E257" s="41"/>
-      <c r="F257" s="41"/>
-      <c r="G257" s="41"/>
-      <c r="H257" s="41"/>
+      <c r="A257" s="31"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="31"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="31"/>
+      <c r="G257" s="31"/>
+      <c r="H257" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
